--- a/2015/2015 Lecture Plan.xlsx
+++ b/2015/2015 Lecture Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Wired Networking</t>
   </si>
   <si>
-    <t>**Robot Competition, all day (9-5) in Sexton Gym. Date might yet change (NOT confirmed)**</t>
-  </si>
-  <si>
     <t>Presentations/Wrap-Up</t>
   </si>
   <si>
@@ -206,6 +203,15 @@
   </si>
   <si>
     <t>Simple wireless networking (802.15.4/802.11)</t>
+  </si>
+  <si>
+    <t>**Robot Competition, all day (9-4) in Sexton Gym. Arrive by 8:30!**</t>
+  </si>
+  <si>
+    <t>Colin is away - TA's available!</t>
+  </si>
+  <si>
+    <t>Final Reports Due!</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -294,34 +300,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -334,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -349,17 +329,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,27 +641,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="40.54296875" customWidth="1"/>
-    <col min="6" max="6" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>38108</v>
       </c>
@@ -721,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>39203</v>
       </c>
@@ -734,7 +708,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>40664</v>
       </c>
@@ -751,7 +725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>41760</v>
       </c>
@@ -764,7 +738,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>43221</v>
       </c>
@@ -777,7 +751,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>44317</v>
       </c>
@@ -788,11 +762,11 @@
         <v>11</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>45778</v>
       </c>
@@ -803,13 +777,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>46874</v>
       </c>
@@ -820,11 +794,11 @@
         <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>37043</v>
       </c>
@@ -835,13 +809,13 @@
         <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>38139</v>
       </c>
@@ -852,11 +826,11 @@
         <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>39600</v>
       </c>
@@ -867,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>40695</v>
       </c>
@@ -884,11 +858,11 @@
         <v>30</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>42156</v>
       </c>
@@ -899,13 +873,13 @@
         <v>31</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>43252</v>
       </c>
@@ -916,11 +890,11 @@
         <v>27</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>44713</v>
       </c>
@@ -931,13 +905,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>45809</v>
       </c>
@@ -948,11 +922,11 @@
         <v>33</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>47270</v>
       </c>
@@ -963,13 +937,13 @@
         <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>37438</v>
       </c>
@@ -980,11 +954,11 @@
         <v>32</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>38899</v>
       </c>
@@ -995,13 +969,13 @@
         <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>39995</v>
       </c>
@@ -1012,11 +986,11 @@
         <v>35</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>41456</v>
       </c>
@@ -1027,11 +1001,11 @@
         <v>39</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>42552</v>
       </c>
@@ -1042,11 +1016,11 @@
         <v>38</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>44013</v>
       </c>
@@ -1055,60 +1029,49 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>45108</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="16">
-        <v>45474</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="C26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>46569</v>
+      </c>
+      <c r="C27" s="12">
+        <v>21</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="13">
-        <v>46569</v>
-      </c>
-      <c r="C28" s="14">
-        <v>21</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
         <v>11140</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="99" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>